--- a/RUDN/Importance/Varible_class_in_Central America.xlsx
+++ b/RUDN/Importance/Varible_class_in_Central America.xlsx
@@ -14,12 +14,135 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
     <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6862745098039217</v>
+        <v>0.2598039209842682</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -401,7 +524,335 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3137254901960784</v>
+        <v>0.2549019753932953</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.196078434586525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.02941176481544971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.01470588240772486</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.01470588240772486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.01470588240772486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.009803921915590763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.004901960957795382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.004901960957795382</v>
       </c>
     </row>
   </sheetData>
